--- a/test.xlsx
+++ b/test.xlsx
@@ -19,9 +19,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Това е за целите на теста файл.</t>
+  </si>
+  <si>
+    <t>4+5</t>
   </si>
 </sst>
 </file>
@@ -331,7 +334,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -339,10 +342,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -370,6 +373,23 @@
         <v>7</v>
       </c>
     </row>
+    <row r="6" spans="1:3">
+      <c r="A6" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <f>+B7+A7</f>
+        <v>16</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/test.xlsx
+++ b/test.xlsx
@@ -19,12 +19,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
     <t>Това е за целите на теста файл.</t>
   </si>
   <si>
     <t>4+5</t>
+  </si>
+  <si>
+    <t>Promeni w excel</t>
   </si>
 </sst>
 </file>
@@ -334,7 +337,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -342,10 +345,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -390,6 +393,11 @@
         <v>16</v>
       </c>
     </row>
+    <row r="13" spans="1:3">
+      <c r="A13" t="s">
+        <v>2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
